--- a/new_data/Analysis.xlsx
+++ b/new_data/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA0ECF9-9B85-4582-AF90-782889F0D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA187BD-98E9-49BC-B57D-47429A4D70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="865" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,21 @@
     <sheet name="LIGNE DE MONTAGE MOTP 08" sheetId="13" r:id="rId12"/>
     <sheet name="ARMOIRE CONNECTEURS RESERVE MOT" sheetId="14" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'ARMOIRE CONNECTEURS RESERVE MOT'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'LIGNE DE MONTAGE IMS MOTG'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'LIGNE DE MONTAGE IMS MOTP'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LIGNE DE MONTAGE MOTG01'!$A$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'LIGNE DE MONTAGE MOTG02'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'LIGNE DE MONTAGE MOTG03'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'LIGNE DE MONTAGE MOTG04'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'LIGNE DE MONTAGE MOTG05'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'LIGNE DE MONTAGE MOTP 08'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'LIGNE DE MONTAGE MOTP01'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'LIGNE DE MONTAGE MOTP02'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'LIGNE DE MONTAGE MOTP03'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'LIGNE DE MONTAGE MOTP04'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -48,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="171">
   <si>
     <t>N° équipement</t>
   </si>
@@ -894,18 +909,18 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -933,23 +948,41 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -957,55 +990,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
@@ -1013,111 +1088,195 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
       <c r="D25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
       <c r="C26" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1284,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
       <c r="C27" t="s">
         <v>28</v>
       </c>
@@ -1133,55 +1298,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
       <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
         <v>31</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>34</v>
-      </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
       <c r="C34" t="s">
         <v>35</v>
       </c>
@@ -1189,7 +1396,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
       <c r="C35" t="s">
         <v>36</v>
       </c>
@@ -1197,7 +1410,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
       <c r="C36" t="s">
         <v>37</v>
       </c>
@@ -1205,7 +1424,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1438,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
       <c r="C38" t="s">
         <v>39</v>
       </c>
@@ -1221,7 +1452,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
       <c r="C39" t="s">
         <v>40</v>
       </c>
@@ -1229,7 +1466,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
       <c r="C40" t="s">
         <v>41</v>
       </c>
@@ -1237,7 +1480,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
       <c r="C41" t="s">
         <v>42</v>
       </c>
@@ -1245,7 +1494,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
       <c r="C42" t="s">
         <v>43</v>
       </c>
@@ -1253,7 +1508,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
@@ -1261,7 +1522,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
       <c r="C44" t="s">
         <v>45</v>
       </c>
@@ -1269,7 +1536,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
@@ -1277,7 +1550,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
       <c r="C46" t="s">
         <v>47</v>
       </c>
@@ -1286,6 +1565,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
+      <sortCondition descending="1" ref="D1:D46"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1296,18 +1580,18 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D36"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1605,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1335,7 +1619,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
       <c r="C3" t="s">
         <v>136</v>
       </c>
@@ -1343,7 +1633,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
       <c r="C4" t="s">
         <v>122</v>
       </c>
@@ -1351,7 +1647,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
       <c r="C5" t="s">
         <v>146</v>
       </c>
@@ -1359,7 +1661,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" t="s">
         <v>121</v>
       </c>
@@ -1367,7 +1675,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -1375,7 +1689,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
       <c r="C8" t="s">
         <v>109</v>
       </c>
@@ -1383,7 +1703,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
       <c r="C9" t="s">
         <v>125</v>
       </c>
@@ -1391,7 +1717,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
       <c r="C10" t="s">
         <v>130</v>
       </c>
@@ -1399,7 +1731,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
@@ -1407,7 +1745,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
       <c r="C12" t="s">
         <v>147</v>
       </c>
@@ -1415,7 +1759,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
       <c r="C13" t="s">
         <v>148</v>
       </c>
@@ -1423,7 +1773,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
@@ -1431,7 +1787,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
@@ -1439,7 +1801,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
       <c r="C16" t="s">
         <v>134</v>
       </c>
@@ -1447,7 +1815,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
       <c r="C17" t="s">
         <v>149</v>
       </c>
@@ -1455,7 +1829,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
       <c r="C18" t="s">
         <v>150</v>
       </c>
@@ -1463,7 +1843,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1857,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -1479,7 +1871,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
       <c r="C21" t="s">
         <v>151</v>
       </c>
@@ -1487,7 +1885,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
       <c r="C22" t="s">
         <v>152</v>
       </c>
@@ -1495,7 +1899,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
       <c r="C23" t="s">
         <v>54</v>
       </c>
@@ -1503,7 +1913,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
       <c r="C24" t="s">
         <v>138</v>
       </c>
@@ -1511,7 +1927,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
       <c r="C25" t="s">
         <v>135</v>
       </c>
@@ -1519,7 +1941,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
       <c r="C26" t="s">
         <v>153</v>
       </c>
@@ -1527,7 +1955,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1969,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
       <c r="C28" t="s">
         <v>154</v>
       </c>
@@ -1543,7 +1983,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
       <c r="C29" t="s">
         <v>155</v>
       </c>
@@ -1551,7 +1997,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
       <c r="C30" t="s">
         <v>156</v>
       </c>
@@ -1559,7 +2011,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
       <c r="C31" t="s">
         <v>129</v>
       </c>
@@ -1567,7 +2025,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
       <c r="C32" t="s">
         <v>128</v>
       </c>
@@ -1575,7 +2039,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -1583,7 +2053,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
       <c r="C34" t="s">
         <v>133</v>
       </c>
@@ -1591,7 +2067,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>109</v>
+      </c>
       <c r="C35" t="s">
         <v>142</v>
       </c>
@@ -1599,7 +2081,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
       <c r="C36" t="s">
         <v>158</v>
       </c>
@@ -1608,6 +2096,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FBF3D462-9DA4-40A0-A1CE-0F4EB42B51CB}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1617,18 +2107,18 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1656,7 +2146,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +2160,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -1672,7 +2174,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +2188,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -1688,7 +2202,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -1696,7 +2216,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" t="s">
         <v>67</v>
       </c>
@@ -1704,7 +2230,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1712,7 +2244,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
       <c r="C10" t="s">
         <v>56</v>
       </c>
@@ -1720,7 +2258,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" t="s">
         <v>72</v>
       </c>
@@ -1728,7 +2272,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" t="s">
         <v>80</v>
       </c>
@@ -1736,7 +2286,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +2300,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
       <c r="C14" t="s">
         <v>159</v>
       </c>
@@ -1752,7 +2314,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -1760,7 +2328,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +2342,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
       <c r="C17" t="s">
         <v>57</v>
       </c>
@@ -1776,7 +2356,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +2370,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -1792,7 +2384,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
@@ -1800,7 +2398,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -1808,7 +2412,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
       <c r="C22" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +2426,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
       <c r="C23" t="s">
         <v>61</v>
       </c>
@@ -1824,7 +2440,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
       <c r="C24" t="s">
         <v>69</v>
       </c>
@@ -1832,7 +2454,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -1840,7 +2468,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
@@ -1848,7 +2482,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +2496,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" t="s">
         <v>74</v>
       </c>
@@ -1864,7 +2510,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
       <c r="C29" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +2524,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -1880,7 +2538,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
@@ -1888,7 +2552,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
       <c r="C32" t="s">
         <v>32</v>
       </c>
@@ -1896,7 +2566,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
       <c r="C33" t="s">
         <v>119</v>
       </c>
@@ -1904,7 +2580,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
       <c r="C34" t="s">
         <v>160</v>
       </c>
@@ -1912,7 +2594,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
       <c r="C35" t="s">
         <v>20</v>
       </c>
@@ -1920,7 +2608,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
@@ -1928,7 +2622,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
@@ -1936,7 +2636,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" t="s">
         <v>83</v>
       </c>
@@ -1944,7 +2650,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
       <c r="C39" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +2664,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
@@ -1960,7 +2678,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
       <c r="C41" t="s">
         <v>29</v>
       </c>
@@ -1968,7 +2692,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -1976,7 +2706,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
       <c r="C43" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +2720,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
       <c r="C44" t="s">
         <v>62</v>
       </c>
@@ -1993,6 +2735,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{AA47FE57-204C-4709-9357-177C2E7CB1DA}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2002,18 +2746,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2027,7 +2771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2041,7 +2785,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -2049,7 +2799,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
       <c r="C4" t="s">
         <v>28</v>
       </c>
@@ -2057,7 +2813,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -2065,7 +2827,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
       <c r="C6" t="s">
         <v>163</v>
       </c>
@@ -2073,7 +2841,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
@@ -2081,7 +2855,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
@@ -2089,7 +2869,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
       <c r="C9" t="s">
         <v>164</v>
       </c>
@@ -2097,7 +2883,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
       <c r="C10" t="s">
         <v>165</v>
       </c>
@@ -2105,7 +2897,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
       <c r="C11" t="s">
         <v>166</v>
       </c>
@@ -2113,7 +2911,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
       <c r="C12" t="s">
         <v>167</v>
       </c>
@@ -2121,7 +2925,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -2129,7 +2939,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
       <c r="C14" t="s">
         <v>168</v>
       </c>
@@ -2137,7 +2953,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
@@ -2145,7 +2967,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -2153,7 +2981,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -2161,7 +2995,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
       <c r="C18" t="s">
         <v>169</v>
       </c>
@@ -2169,7 +3009,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
       <c r="C19" t="s">
         <v>132</v>
       </c>
@@ -2177,7 +3023,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
       <c r="C20" t="s">
         <v>138</v>
       </c>
@@ -2185,7 +3037,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -2193,7 +3051,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
       <c r="C22" t="s">
         <v>112</v>
       </c>
@@ -2202,111 +3066,156 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{153696CE-C272-4073-BDAA-D6F793BB8924}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A1BA9AF-3027-406A-A9A9-59832173F773}">
-  <dimension ref="A13:D21"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="D14">
+      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
         <v>65</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D16">
+      <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s">
         <v>114</v>
       </c>
-      <c r="D19">
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" t="s">
         <v>160</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="D21">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{2A1BA9AF-3027-406A-A9A9-59832173F773}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2315,19 +3224,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D7931-DC55-445B-A70D-2509AF45D3B7}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2341,7 +3250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2349,45 +3258,75 @@
         <v>50</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -2395,287 +3334,503 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="D9">
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
         <v>55</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
         <v>59</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
         <v>24</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
         <v>64</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
         <v>65</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
         <v>66</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
         <v>39</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>46</v>
-      </c>
       <c r="D42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
       <c r="C43" t="s">
         <v>67</v>
       </c>
@@ -2683,7 +3838,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
       <c r="C44" t="s">
         <v>68</v>
       </c>
@@ -2691,7 +3852,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
       <c r="C45" t="s">
         <v>32</v>
       </c>
@@ -2699,7 +3866,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="s">
         <v>69</v>
       </c>
@@ -2707,7 +3880,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="s">
         <v>70</v>
       </c>
@@ -2715,7 +3894,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
       <c r="C48" t="s">
         <v>47</v>
       </c>
@@ -2724,6 +3909,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{3F2D7931-DC55-445B-A70D-2509AF45D3B7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D48">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2733,18 +3924,18 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D56"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +3949,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2772,7 +3963,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
@@ -2780,55 +3977,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -2836,55 +4075,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
@@ -2892,87 +4173,153 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
       <c r="D27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
@@ -2980,7 +4327,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
@@ -2988,143 +4341,251 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>51</v>
+      </c>
       <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
         <v>5</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>76</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
         <v>46</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>54</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" t="s">
         <v>77</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>59</v>
-      </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
       <c r="C47" t="s">
         <v>78</v>
       </c>
@@ -3132,7 +4593,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
       <c r="C48" t="s">
         <v>63</v>
       </c>
@@ -3140,7 +4607,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
       <c r="C49" t="s">
         <v>79</v>
       </c>
@@ -3148,7 +4621,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
       <c r="C50" t="s">
         <v>80</v>
       </c>
@@ -3156,7 +4635,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" t="s">
         <v>39</v>
       </c>
@@ -3164,7 +4649,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
       <c r="C52" t="s">
         <v>81</v>
       </c>
@@ -3172,7 +4663,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
       <c r="C53" t="s">
         <v>82</v>
       </c>
@@ -3180,7 +4677,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
       <c r="C54" t="s">
         <v>58</v>
       </c>
@@ -3188,7 +4691,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
       <c r="C55" t="s">
         <v>83</v>
       </c>
@@ -3196,7 +4705,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
+        <v>51</v>
+      </c>
       <c r="C56" t="s">
         <v>47</v>
       </c>
@@ -3205,6 +4720,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{A6F29A56-78E3-46B7-9748-F6042B8C59E1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D56">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3213,19 +4734,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECF169E-BB8B-4977-904C-CFC5EF08AF53}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D53"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3239,7 +4760,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -3247,13 +4768,19 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -3261,23 +4788,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" t="s">
         <v>72</v>
       </c>
@@ -3285,367 +4830,643 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
         <v>20</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
         <v>82</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
         <v>87</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
         <v>81</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
         <v>69</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
         <v>88</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
         <v>9</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
         <v>89</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
         <v>90</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>34</v>
       </c>
@@ -3653,7 +5474,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
       <c r="C53" t="s">
         <v>47</v>
       </c>
@@ -3662,6 +5489,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{5ECF169E-BB8B-4977-904C-CFC5EF08AF53}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D53">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3670,19 +5503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A635EB-F703-4972-9457-AF4466BCEC5D}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3696,7 +5529,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3704,301 +5537,523 @@
         <v>96</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>36</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
       <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>37</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
         <v>94</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
         <v>77</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>69</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
         <v>43</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
         <v>20</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
         <v>42</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
         <v>65</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
         <v>96</v>
       </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>47</v>
       </c>
@@ -4007,6 +6062,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{64A635EB-F703-4972-9457-AF4466BCEC5D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D39">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4016,18 +6077,18 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D42"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +6102,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -4055,79 +6116,139 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>100</v>
+      </c>
       <c r="C12" t="s">
         <v>18</v>
       </c>
@@ -4135,239 +6256,419 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
         <v>74</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
         <v>65</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>54</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
         <v>22</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
         <v>5</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
         <v>100</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>47</v>
       </c>
@@ -4376,6 +6677,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{E9809CF9-F7CA-41B8-AC96-E7578F934E1C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4384,19 +6691,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE334F74-0D1D-411E-A863-21824892C2A1}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4410,7 +6717,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -4418,173 +6725,299 @@
         <v>103</v>
       </c>
       <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D5">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D7">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11">
+      <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
@@ -4592,159 +7025,279 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
       <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
         <v>83</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
         <v>85</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
         <v>86</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" t="s">
         <v>44</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
         <v>36</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" t="s">
         <v>64</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="D42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>56</v>
       </c>
@@ -4752,7 +7305,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
@@ -4761,6 +7320,12 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FE334F74-0D1D-411E-A863-21824892C2A1}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4770,18 +7335,18 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4795,7 +7360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -4809,7 +7374,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
@@ -4817,7 +7388,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -4825,7 +7402,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
@@ -4833,7 +7416,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -4841,7 +7430,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
@@ -4849,7 +7444,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
@@ -4857,7 +7458,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
@@ -4865,7 +7472,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
       <c r="C10" t="s">
         <v>72</v>
       </c>
@@ -4873,7 +7486,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
@@ -4881,7 +7500,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>105</v>
+      </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
@@ -4889,7 +7514,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
       <c r="C13" t="s">
         <v>56</v>
       </c>
@@ -4897,7 +7528,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
       <c r="C14" t="s">
         <v>63</v>
       </c>
@@ -4905,7 +7542,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
@@ -4913,7 +7556,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
@@ -4921,7 +7570,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
@@ -4929,7 +7584,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -4937,7 +7598,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
@@ -4945,7 +7612,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
@@ -4953,7 +7626,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
       <c r="C21" t="s">
         <v>94</v>
       </c>
@@ -4961,7 +7640,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
@@ -4969,7 +7654,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
       <c r="C23" t="s">
         <v>117</v>
       </c>
@@ -4977,7 +7668,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
       <c r="C24" t="s">
         <v>60</v>
       </c>
@@ -4985,7 +7682,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -4993,7 +7696,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
       <c r="C26" t="s">
         <v>116</v>
       </c>
@@ -5001,7 +7710,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
@@ -5009,7 +7724,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
       <c r="C28" t="s">
         <v>76</v>
       </c>
@@ -5017,7 +7738,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
       <c r="C29" t="s">
         <v>91</v>
       </c>
@@ -5025,7 +7752,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
       <c r="C30" t="s">
         <v>44</v>
       </c>
@@ -5033,7 +7766,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +7780,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
       <c r="C32" t="s">
         <v>89</v>
       </c>
@@ -5049,7 +7794,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
       <c r="C33" t="s">
         <v>16</v>
       </c>
@@ -5057,7 +7808,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
@@ -5065,7 +7822,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
@@ -5073,7 +7836,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
       <c r="C36" t="s">
         <v>118</v>
       </c>
@@ -5081,7 +7850,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
       <c r="C37" t="s">
         <v>119</v>
       </c>
@@ -5089,7 +7864,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
       <c r="C38" t="s">
         <v>83</v>
       </c>
@@ -5097,7 +7878,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
       <c r="C39" t="s">
         <v>61</v>
       </c>
@@ -5105,7 +7892,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
       <c r="C40" t="s">
         <v>79</v>
       </c>
@@ -5113,7 +7906,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
       <c r="C41" t="s">
         <v>47</v>
       </c>
@@ -5121,7 +7920,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
       <c r="C42" t="s">
         <v>105</v>
       </c>
@@ -5130,6 +7935,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{FF3D097A-C85A-43A3-829E-B9E57BE913A6}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5139,18 +7946,18 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D33"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5164,7 +7971,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5178,7 +7985,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
       <c r="C3" t="s">
         <v>121</v>
       </c>
@@ -5186,7 +7999,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
       <c r="C4" t="s">
         <v>122</v>
       </c>
@@ -5194,7 +8013,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
       <c r="C5" t="s">
         <v>123</v>
       </c>
@@ -5202,7 +8027,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
@@ -5210,7 +8041,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
       <c r="C7" t="s">
         <v>124</v>
       </c>
@@ -5218,7 +8055,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
       <c r="C8" t="s">
         <v>125</v>
       </c>
@@ -5226,7 +8069,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
       <c r="C9" t="s">
         <v>126</v>
       </c>
@@ -5234,7 +8083,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -5242,7 +8097,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
       <c r="C11" t="s">
         <v>128</v>
       </c>
@@ -5250,7 +8111,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
       <c r="C12" t="s">
         <v>129</v>
       </c>
@@ -5258,7 +8125,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
       <c r="C13" t="s">
         <v>130</v>
       </c>
@@ -5266,7 +8139,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
       <c r="C14" t="s">
         <v>91</v>
       </c>
@@ -5274,7 +8153,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -5282,7 +8167,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
       <c r="C16" t="s">
         <v>28</v>
       </c>
@@ -5290,7 +8181,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -5298,7 +8195,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
       <c r="C18" t="s">
         <v>131</v>
       </c>
@@ -5306,7 +8209,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
       <c r="C19" t="s">
         <v>132</v>
       </c>
@@ -5314,7 +8223,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
       <c r="C20" t="s">
         <v>133</v>
       </c>
@@ -5322,7 +8237,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
       <c r="C21" t="s">
         <v>134</v>
       </c>
@@ -5330,7 +8251,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
       <c r="C22" t="s">
         <v>135</v>
       </c>
@@ -5338,7 +8265,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
       <c r="C23" t="s">
         <v>136</v>
       </c>
@@ -5346,7 +8279,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
       <c r="C24" t="s">
         <v>137</v>
       </c>
@@ -5354,7 +8293,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
       <c r="C25" t="s">
         <v>138</v>
       </c>
@@ -5362,7 +8307,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" t="s">
         <v>139</v>
       </c>
@@ -5370,7 +8321,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
       <c r="C27" t="s">
         <v>140</v>
       </c>
@@ -5378,7 +8335,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
       <c r="C28" t="s">
         <v>141</v>
       </c>
@@ -5386,7 +8349,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
       <c r="C29" t="s">
         <v>142</v>
       </c>
@@ -5394,7 +8363,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
       <c r="C30" t="s">
         <v>143</v>
       </c>
@@ -5402,7 +8377,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" t="s">
+        <v>107</v>
+      </c>
       <c r="C31" t="s">
         <v>107</v>
       </c>
@@ -5410,7 +8391,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
       <c r="C32" t="s">
         <v>69</v>
       </c>
@@ -5418,7 +8405,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -5427,6 +8420,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{BB363653-4CA7-4D10-9B49-C4108F37FFD7}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/new_data/Analysis.xlsx
+++ b/new_data/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA187BD-98E9-49BC-B57D-47429A4D70CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB7F9F-B741-4DDF-847B-C025E4689067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="865" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-1830" windowWidth="16410" windowHeight="9090" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -582,6 +582,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,9 +626,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,21 +913,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -948,7 +958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -962,7 +972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -976,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1018,7 +1028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1032,7 +1042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1088,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1116,7 +1126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1130,7 +1140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1158,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1186,7 +1196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1214,7 +1224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1228,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1242,7 +1252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1256,7 +1266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1270,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1298,7 +1308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1312,7 +1322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1326,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1382,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1396,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1410,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1424,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1438,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1452,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1480,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1508,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1550,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1562,6 +1572,22 @@
       </c>
       <c r="D46">
         <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>45139</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45525</v>
+      </c>
+      <c r="D65" s="5">
+        <v>9264</v>
       </c>
     </row>
   </sheetData>
@@ -1583,15 +1609,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1613,13 +1639,13 @@
         <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1627,13 +1653,13 @@
         <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1641,13 +1667,13 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1655,13 +1681,13 @@
         <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1669,13 +1695,13 @@
         <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1683,13 +1709,13 @@
         <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1697,13 +1723,13 @@
         <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1711,13 +1737,13 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1725,13 +1751,13 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1739,13 +1765,13 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -1753,13 +1779,13 @@
         <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1767,13 +1793,13 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1781,13 +1807,13 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1795,13 +1821,13 @@
         <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -1809,13 +1835,13 @@
         <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1823,13 +1849,13 @@
         <v>109</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1837,13 +1863,13 @@
         <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1851,13 +1877,13 @@
         <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="D19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1865,13 +1891,13 @@
         <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1879,13 +1905,13 @@
         <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1893,13 +1919,13 @@
         <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1907,13 +1933,13 @@
         <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1921,13 +1947,13 @@
         <v>109</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1935,13 +1961,13 @@
         <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1949,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1963,13 +1989,13 @@
         <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -1977,13 +2003,13 @@
         <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -1991,13 +2017,13 @@
         <v>109</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2005,13 +2031,13 @@
         <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2019,13 +2045,13 @@
         <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2039,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -2053,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2067,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2081,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2096,7 +2122,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{FBF3D462-9DA4-40A0-A1CE-0F4EB42B51CB}"/>
+  <autoFilter ref="A1:D1" xr:uid="{FBF3D462-9DA4-40A0-A1CE-0F4EB42B51CB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D36">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2110,15 +2140,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2140,13 +2170,13 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2154,13 +2184,13 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2168,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2182,13 +2212,13 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2196,13 +2226,13 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2210,13 +2240,13 @@
         <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2224,13 +2254,13 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2238,13 +2268,13 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2252,13 +2282,13 @@
         <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2266,13 +2296,13 @@
         <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2280,13 +2310,13 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2294,13 +2324,13 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2308,13 +2338,13 @@
         <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2322,13 +2352,13 @@
         <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -2336,13 +2366,13 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2350,13 +2380,13 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2364,13 +2394,13 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2378,13 +2408,13 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -2392,13 +2422,13 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2406,13 +2436,13 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2420,13 +2450,13 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2434,13 +2464,13 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2448,13 +2478,13 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2462,13 +2492,13 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2476,13 +2506,13 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2490,13 +2520,13 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2504,13 +2534,13 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2518,13 +2548,13 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2532,13 +2562,13 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2546,13 +2576,13 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -2560,13 +2590,13 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2574,13 +2604,13 @@
         <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2588,13 +2618,13 @@
         <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -2602,13 +2632,13 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2616,13 +2646,13 @@
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2630,13 +2660,13 @@
         <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2644,13 +2674,13 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2658,13 +2688,13 @@
         <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="D39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2672,13 +2702,13 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2686,13 +2716,13 @@
         <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2700,13 +2730,13 @@
         <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2720,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -2735,7 +2765,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{AA47FE57-204C-4709-9357-177C2E7CB1DA}"/>
+  <autoFilter ref="A1:D1" xr:uid="{AA47FE57-204C-4709-9357-177C2E7CB1DA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2746,18 +2780,18 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2785,7 +2819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2793,13 +2827,13 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -2807,13 +2841,13 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2821,13 +2855,13 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="D5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2835,13 +2869,13 @@
         <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2849,13 +2883,13 @@
         <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2863,13 +2897,13 @@
         <v>112</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2877,13 +2911,13 @@
         <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2891,13 +2925,13 @@
         <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2905,13 +2939,13 @@
         <v>112</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2919,13 +2953,13 @@
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2933,13 +2967,13 @@
         <v>112</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2947,13 +2981,13 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2961,13 +2995,13 @@
         <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -2975,13 +3009,13 @@
         <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -2989,13 +3023,13 @@
         <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3003,13 +3037,13 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3017,13 +3051,13 @@
         <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3037,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3051,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3066,7 +3100,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{153696CE-C272-4073-BDAA-D6F793BB8924}"/>
+  <autoFilter ref="A1:D1" xr:uid="{153696CE-C272-4073-BDAA-D6F793BB8924}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D22">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3077,18 +3115,18 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3102,7 +3140,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3110,13 +3148,13 @@
         <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3124,13 +3162,13 @@
         <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3138,13 +3176,13 @@
         <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3152,13 +3190,13 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3172,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3180,13 +3218,13 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3200,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3215,7 +3253,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{2A1BA9AF-3027-406A-A9A9-59832173F773}"/>
+  <autoFilter ref="A1:D1" xr:uid="{2A1BA9AF-3027-406A-A9A9-59832173F773}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3228,15 +3270,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3250,7 +3292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3264,7 +3306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3278,7 +3320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3292,7 +3334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -3306,7 +3348,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3334,7 +3376,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3348,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3376,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3404,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3418,7 +3460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3432,7 +3474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3460,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -3474,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3488,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3502,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3516,7 +3558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3530,7 +3572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3544,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3558,7 +3600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3572,7 +3614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3586,7 +3628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3600,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3614,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3628,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3642,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -3670,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3684,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3698,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3712,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3726,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3740,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -3754,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -3768,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3796,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3810,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3824,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3838,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3852,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3866,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3880,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -3927,15 +3969,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3949,7 +3991,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -3963,7 +4005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -3977,7 +4019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3991,7 +4033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4005,7 +4047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4019,7 +4061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4033,7 +4075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4047,7 +4089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -4061,7 +4103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4075,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -4089,7 +4131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -4103,7 +4145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4117,7 +4159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4131,7 +4173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4159,7 +4201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -4173,7 +4215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4187,7 +4229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -4201,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4229,7 +4271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4243,7 +4285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -4257,7 +4299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -4271,7 +4313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4285,7 +4327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4299,7 +4341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -4313,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4327,7 +4369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4341,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4355,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -4369,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -4383,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4397,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4411,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -4425,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4439,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -4453,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4467,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4481,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4495,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4523,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4537,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4551,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4565,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4579,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4593,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4607,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4621,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4635,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -4649,7 +4691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4663,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4691,7 +4733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4705,7 +4747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -4738,15 +4780,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4760,7 +4802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4774,7 +4816,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4788,7 +4830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -4802,7 +4844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4816,7 +4858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4830,7 +4872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4844,7 +4886,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4858,7 +4900,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4872,7 +4914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4886,7 +4928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4900,7 +4942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4914,7 +4956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4928,7 +4970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4942,7 +4984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4956,7 +4998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -4970,7 +5012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -4984,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -4998,7 +5040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +5054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5026,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5040,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -5054,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5068,7 +5110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -5096,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -5110,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -5124,7 +5166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5138,7 +5180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5152,7 +5194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -5166,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5180,7 +5222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5194,7 +5236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -5208,7 +5250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5222,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5236,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5250,7 +5292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5264,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -5278,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5306,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -5320,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5334,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -5348,7 +5390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5362,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5376,7 +5418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5390,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5404,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5418,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5446,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -5460,7 +5502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -5474,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5507,15 +5549,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5529,7 +5571,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -5543,7 +5585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -5557,7 +5599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -5571,7 +5613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5585,7 +5627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5599,7 +5641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -5613,7 +5655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5627,7 +5669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5641,7 +5683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -5655,7 +5697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5669,7 +5711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -5683,7 +5725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5697,7 +5739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -5711,7 +5753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5725,7 +5767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5739,7 +5781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -5753,7 +5795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -5767,7 +5809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5781,7 +5823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5795,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5809,7 +5851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5823,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -5837,7 +5879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -5851,7 +5893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -5865,7 +5907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5879,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5893,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5907,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5921,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -5935,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -5949,7 +5991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -5963,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -5977,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -5991,7 +6033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6005,7 +6047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6019,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6033,7 +6075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6047,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -6080,15 +6122,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6102,7 +6144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6116,7 +6158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6130,7 +6172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6144,7 +6186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6158,7 +6200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -6172,7 +6214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -6186,7 +6228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6200,7 +6242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6214,7 +6256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -6228,7 +6270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -6242,7 +6284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -6256,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6270,7 +6312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -6284,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6298,7 +6340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -6312,7 +6354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6326,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -6340,7 +6382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6354,7 +6396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6368,7 +6410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6396,7 +6438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -6410,7 +6452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -6424,7 +6466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6438,7 +6480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6452,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -6466,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -6480,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -6494,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -6522,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -6536,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6550,7 +6592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -6564,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -6578,7 +6620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -6592,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6606,7 +6648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -6620,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -6634,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -6648,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -6662,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -6691,19 +6733,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE334F74-0D1D-411E-A863-21824892C2A1}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6717,7 +6759,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6731,7 +6773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -6745,7 +6787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6759,7 +6801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -6773,7 +6815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -6787,7 +6829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -6801,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6815,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6829,7 +6871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6843,7 +6885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -6857,7 +6899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -6871,7 +6913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6885,7 +6927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -6899,7 +6941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -6913,7 +6955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -6927,7 +6969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6941,7 +6983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6955,7 +6997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -6969,7 +7011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -6983,7 +7025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -6997,7 +7039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -7011,7 +7053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7025,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -7039,7 +7081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -7053,7 +7095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -7067,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7081,7 +7123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -7095,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7109,7 +7151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -7123,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -7137,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -7151,7 +7193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7165,7 +7207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -7179,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -7193,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7207,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -7221,7 +7263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -7235,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7249,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -7263,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -7277,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7291,7 +7333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7305,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -7338,15 +7380,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7360,7 +7402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7368,13 +7410,13 @@
         <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -7382,13 +7424,13 @@
         <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7402,7 +7444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -7410,13 +7452,13 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -7424,13 +7466,13 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7438,13 +7480,13 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -7452,13 +7494,13 @@
         <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -7466,13 +7508,13 @@
         <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7480,13 +7522,13 @@
         <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -7494,13 +7536,13 @@
         <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -7508,13 +7550,13 @@
         <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7522,13 +7564,13 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -7536,13 +7578,13 @@
         <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -7550,13 +7592,13 @@
         <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -7564,13 +7606,13 @@
         <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -7578,13 +7620,13 @@
         <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7592,13 +7634,13 @@
         <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7606,13 +7648,13 @@
         <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7620,13 +7662,13 @@
         <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -7634,13 +7676,13 @@
         <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7648,13 +7690,13 @@
         <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -7662,13 +7704,13 @@
         <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7676,13 +7718,13 @@
         <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7690,13 +7732,13 @@
         <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -7704,13 +7746,13 @@
         <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7718,13 +7760,13 @@
         <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7732,13 +7774,13 @@
         <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -7746,13 +7788,13 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -7760,13 +7802,13 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7774,13 +7816,13 @@
         <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -7788,13 +7830,13 @@
         <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -7802,13 +7844,13 @@
         <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -7816,13 +7858,13 @@
         <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="D34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -7830,13 +7872,13 @@
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -7844,13 +7886,13 @@
         <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7858,13 +7900,13 @@
         <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -7872,13 +7914,13 @@
         <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -7886,13 +7928,13 @@
         <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7900,13 +7942,13 @@
         <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -7914,13 +7956,13 @@
         <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -7928,14 +7970,18 @@
         <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{FF3D097A-C85A-43A3-829E-B9E57BE913A6}"/>
+  <autoFilter ref="A1:D1" xr:uid="{FF3D097A-C85A-43A3-829E-B9E57BE913A6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D42">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7949,15 +7995,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7971,7 +8017,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7979,13 +8025,13 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -7993,13 +8039,13 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -8007,13 +8053,13 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8021,13 +8067,13 @@
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -8035,13 +8081,13 @@
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8049,13 +8095,13 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -8063,13 +8109,13 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -8077,13 +8123,13 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8091,13 +8137,13 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -8105,13 +8151,13 @@
         <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -8119,13 +8165,13 @@
         <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -8133,13 +8179,13 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -8147,13 +8193,13 @@
         <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -8161,13 +8207,13 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -8175,13 +8221,13 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -8189,13 +8235,13 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8203,13 +8249,13 @@
         <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -8217,13 +8263,13 @@
         <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -8231,13 +8277,13 @@
         <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -8245,13 +8291,13 @@
         <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -8259,13 +8305,13 @@
         <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -8273,13 +8319,13 @@
         <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8287,13 +8333,13 @@
         <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8301,13 +8347,13 @@
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -8315,13 +8361,13 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -8329,13 +8375,13 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8343,13 +8389,13 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8357,13 +8403,13 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -8371,13 +8417,13 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -8385,13 +8431,13 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -8405,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -8420,7 +8466,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{BB363653-4CA7-4D10-9B49-C4108F37FFD7}"/>
+  <autoFilter ref="A1:D1" xr:uid="{BB363653-4CA7-4D10-9B49-C4108F37FFD7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D33">
+      <sortCondition descending="1" ref="D1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/new_data/Analysis.xlsx
+++ b/new_data/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEB7F9F-B741-4DDF-847B-C025E4689067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D1CD2-8D41-4B10-B879-D00ACC8DB233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-1830" windowWidth="16410" windowHeight="9090" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -626,13 +626,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,22 +913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -958,7 +956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -972,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -986,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1014,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1028,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1070,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1098,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1126,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1140,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1182,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1196,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1224,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1280,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1294,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1322,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1336,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1406,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1462,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1476,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1490,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1560,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1574,19 +1572,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="4">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="3">
         <v>45139</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="3">
         <v>45525</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="1">
         <v>9264</v>
       </c>
     </row>
@@ -1609,15 +1606,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1673,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1701,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1715,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1757,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1799,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1813,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1827,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -1841,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1855,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1883,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1911,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1939,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1953,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1967,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1981,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1995,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -2079,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2093,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2140,15 +2137,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2204,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2218,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2232,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2246,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2288,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2302,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2344,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -2372,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2400,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2442,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2498,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2526,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2540,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2554,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2568,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -2596,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2624,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2652,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2680,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2708,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2750,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -2783,15 +2780,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -2847,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2861,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2875,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2903,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2917,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2931,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2945,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2959,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2987,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -3001,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3015,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -3029,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3071,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3085,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3118,15 +3115,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3140,7 +3137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3168,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3182,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3196,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3224,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3238,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3266,19 +3263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D7931-DC55-445B-A70D-2509AF45D3B7}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3292,7 +3289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3306,7 +3303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3320,7 +3317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3334,7 +3331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -3348,7 +3345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3376,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3404,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3432,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3474,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3488,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3502,7 +3499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -3516,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3544,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3558,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3572,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3586,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3600,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3614,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3628,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3656,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3670,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3684,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3698,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -3712,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3740,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3754,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3782,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -3796,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3824,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3838,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3852,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3866,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3894,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3908,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3922,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3936,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -3969,15 +3966,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3991,7 +3988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4005,7 +4002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4019,7 +4016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4033,7 +4030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4047,7 +4044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4075,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4089,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -4103,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4117,7 +4114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -4131,7 +4128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -4145,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4173,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4187,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4201,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -4215,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4229,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -4243,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -4257,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4271,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -4299,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -4313,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4327,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4341,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -4355,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4397,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -4411,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -4425,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4453,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -4467,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4481,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -4495,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4537,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4551,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4565,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4579,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4607,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4621,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4635,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4663,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4677,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -4691,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4705,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -4719,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -4780,15 +4777,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4802,7 +4799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -4844,7 +4841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4872,7 +4869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4886,7 +4883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4900,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4928,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4956,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4984,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4998,7 +4995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5012,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -5026,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -5040,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -5054,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5068,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5082,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -5096,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5124,7 +5121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -5138,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -5152,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5180,7 +5177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -5208,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5222,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5236,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5264,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5306,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -5320,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5334,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5348,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -5362,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5376,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -5390,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5404,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5418,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5432,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5446,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5460,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -5474,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5488,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -5502,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -5516,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5549,15 +5546,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -5585,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -5599,7 +5596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -5613,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5641,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -5655,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5669,7 +5666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -5697,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5711,7 +5708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -5725,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -5753,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5767,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5781,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -5809,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5823,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5865,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -5879,7 +5876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -5893,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5921,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5935,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5949,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -6005,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6033,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6061,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6089,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -6122,15 +6119,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6158,7 +6155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6172,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6186,7 +6183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6200,7 +6197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -6214,7 +6211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -6228,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6242,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -6284,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -6298,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -6326,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6340,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -6354,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6368,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -6382,7 +6379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6396,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6410,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6438,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -6452,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -6466,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6494,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -6508,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -6522,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -6536,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -6550,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -6564,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -6578,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -6606,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -6620,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -6634,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6648,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -6662,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -6676,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -6690,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -6704,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -6737,15 +6734,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6759,7 +6756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6773,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6801,7 +6798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -6815,7 +6812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -6829,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -6843,7 +6840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6857,7 +6854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6871,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -6899,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -6913,7 +6910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6927,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -6955,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -6969,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6983,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -7011,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -7025,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -7039,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -7053,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7067,7 +7064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -7081,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -7095,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -7109,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7123,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -7137,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7151,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -7165,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -7179,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -7193,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7207,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -7221,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -7235,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7249,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -7263,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -7277,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -7319,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -7380,15 +7377,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7402,7 +7399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7416,7 +7413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -7430,7 +7427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7444,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -7458,7 +7455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -7472,7 +7469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7486,7 +7483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -7500,7 +7497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -7514,7 +7511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -7542,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7570,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -7584,7 +7581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -7598,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -7612,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -7626,7 +7623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7668,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -7682,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7696,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7724,7 +7721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7738,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7766,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7780,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -7794,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7822,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -7836,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -7878,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -7892,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7906,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -7920,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -7934,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7948,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -7995,15 +7992,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8017,7 +8014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8031,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -8045,7 +8042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -8059,7 +8056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8073,7 +8070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -8087,7 +8084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8101,7 +8098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -8115,7 +8112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -8129,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8143,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -8157,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -8171,7 +8168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -8185,7 +8182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -8199,7 +8196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -8213,7 +8210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -8227,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -8241,7 +8238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8255,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -8269,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -8283,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -8297,7 +8294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -8311,7 +8308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -8325,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8339,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8353,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -8367,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -8381,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8395,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8409,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -8423,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -8437,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -8451,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>106</v>
       </c>

--- a/new_data/Analysis.xlsx
+++ b/new_data/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D1CD2-8D41-4B10-B879-D00ACC8DB233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BE144-11E6-4F9B-86B9-6BCFD0CE2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="865" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1950" windowWidth="16440" windowHeight="28320" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -913,22 +913,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -956,7 +956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -998,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1572,11 +1572,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>45139</v>
       </c>
@@ -1606,15 +1606,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2137,15 +2137,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -2780,15 +2780,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3115,15 +3115,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" customWidth="1"/>
-    <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3263,19 +3263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D7931-DC55-445B-A70D-2509AF45D3B7}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -3966,15 +3966,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -4777,15 +4777,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5546,15 +5546,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -6119,15 +6119,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -6734,15 +6734,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -7377,15 +7377,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="49.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -7992,15 +7992,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
